--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Sklep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DF5EC-C7BA-4896-836D-27ECF19B184E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB2735F-B30B-43B8-A02C-09557FD9ACC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="21360" yWindow="4005" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>userID</t>
   </si>
@@ -142,31 +142,53 @@
     <t>dupa@o2.pl</t>
   </si>
   <si>
-    <t>elo@o2.pl</t>
-  </si>
-  <si>
-    <t>essa@o2.pl</t>
-  </si>
-  <si>
     <t>dupa123</t>
   </si>
   <si>
-    <t>elo123</t>
-  </si>
-  <si>
-    <t>essa123</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>Essa</t>
+    <t>essa</t>
+  </si>
+  <si>
+    <t>essae</t>
+  </si>
+  <si>
+    <t>essssa</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>esa</t>
+  </si>
+  <si>
+    <t>eas</t>
+  </si>
+  <si>
+    <t>esaesae</t>
+  </si>
+  <si>
+    <t>esaeaseae</t>
+  </si>
+  <si>
+    <t>seaesaease</t>
+  </si>
+  <si>
+    <t>eraafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easrasca </t>
+  </si>
+  <si>
+    <t>wad s aw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,48 +578,31 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
+      <c r="D3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{F1803853-8E16-486C-8B84-37632CF03A1F}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{5B77A512-4C6F-415E-9170-B10BD887A54D}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{39BABB7D-1A3A-4B90-926E-E803CB68276C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{39BABB7D-1A3A-4B90-926E-E803CB68276C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -605,19 +610,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,25 +638,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,9 +695,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,10 +735,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,8 +775,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -824,9 +817,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="48.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,9 +854,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB2735F-B30B-43B8-A02C-09557FD9ACC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FA246-EA6C-40BB-884F-563C976A39B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="4005" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
   <si>
     <t>userID</t>
   </si>
@@ -148,40 +148,31 @@
     <t>c</t>
   </si>
   <si>
+    <t>esa</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>essa</t>
   </si>
   <si>
-    <t>essae</t>
+    <t>esssa</t>
   </si>
   <si>
     <t>essssa</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>esa</t>
-  </si>
-  <si>
-    <t>eas</t>
-  </si>
-  <si>
-    <t>esaesae</t>
-  </si>
-  <si>
-    <t>esaeaseae</t>
-  </si>
-  <si>
-    <t>seaesaease</t>
-  </si>
-  <si>
-    <t>eraafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easrasca </t>
-  </si>
-  <si>
-    <t>wad s aw</t>
+    <t>esssaa</t>
+  </si>
+  <si>
+    <t>essa@o2.pl</t>
+  </si>
+  <si>
+    <t>essa123</t>
+  </si>
+  <si>
+    <t>Michal Essa</t>
   </si>
 </sst>
 </file>
@@ -589,15 +580,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -610,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +635,36 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FA246-EA6C-40BB-884F-563C976A39B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0FC94-DCE6-488D-B6BC-A2CE103FD5DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>userID</t>
   </si>
@@ -139,40 +139,13 @@
     <t>shoeSellPrice</t>
   </si>
   <si>
-    <t>dupa@o2.pl</t>
-  </si>
-  <si>
-    <t>dupa123</t>
+    <t>e</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>esa</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>essa</t>
-  </si>
-  <si>
-    <t>esssa</t>
-  </si>
-  <si>
-    <t>essssa</t>
-  </si>
-  <si>
-    <t>esssaa</t>
-  </si>
-  <si>
-    <t>essa@o2.pl</t>
-  </si>
-  <si>
-    <t>essa123</t>
-  </si>
-  <si>
-    <t>Michal Essa</t>
+    <t>es</t>
   </si>
 </sst>
 </file>
@@ -180,19 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -216,16 +180,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,12 +501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
@@ -564,56 +526,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{F1803853-8E16-486C-8B84-37632CF03A1F}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{39BABB7D-1A3A-4B90-926E-E803CB68276C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="9.42578125" collapsed="true"/>
@@ -622,50 +581,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2" t="s">
-        <v>38</v>
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0FC94-DCE6-488D-B6BC-A2CE103FD5DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8CB53-E197-4781-9BAB-D82F38C6CBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>userID</t>
   </si>
@@ -137,22 +137,12 @@
   </si>
   <si>
     <t>shoeSellPrice</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,17 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,34 +516,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -562,21 +524,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,26 +551,6 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,9 +602,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,8 +682,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,9 +724,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,9 +761,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8CB53-E197-4781-9BAB-D82F38C6CBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD23C19-3CC6-47DE-8BDC-DA9222156DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD23C19-3CC6-47DE-8BDC-DA9222156DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3308644-7CF9-41E1-9704-3660D8CDD50A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="4260" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="11775" yWindow="3570" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>userID</t>
   </si>
@@ -137,16 +137,49 @@
   </si>
   <si>
     <t>shoeSellPrice</t>
+  </si>
+  <si>
+    <t>dupa@o2.pl</t>
+  </si>
+  <si>
+    <t>dupa123</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Michał Salamon</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -170,13 +203,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
@@ -516,6 +552,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -524,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A2:C4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,13 +599,13 @@
     <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -551,6 +615,34 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,7 +654,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,11 +752,6 @@
       </c>
       <c r="D1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>userID</t>
   </si>
@@ -161,12 +161,25 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Shop.CustomerPackage.Address@55f92660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A4:D4"/>
@@ -533,9 +546,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,6 +593,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -588,7 +615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -596,13 +623,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,6 +670,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,7 +700,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,9 +735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,10 +775,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,8 +810,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,9 +852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="48.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,9 +889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>userID</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Shop.CustomerPackage.Address@55f92660</t>
+  </si>
+  <si>
+    <t>jemdżem@gmail.com</t>
+  </si>
+  <si>
+    <t>jemdrzem123</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Jemdżem Stanoski</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Shop.CustomerPackage.Address@3b326997</t>
   </si>
 </sst>
 </file>
@@ -538,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A4:D4"/>
@@ -607,6 +625,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -615,7 +647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -685,6 +717,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3308644-7CF9-41E1-9704-3660D8CDD50A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E2AD91-7A43-451F-99EF-5D555F262413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="3570" windowWidth="13935" windowHeight="15630" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>userID</t>
   </si>
@@ -163,41 +163,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Shop.CustomerPackage.Address@55f92660</t>
-  </si>
-  <si>
-    <t>jemdżem@gmail.com</t>
-  </si>
-  <si>
-    <t>jemdrzem123</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Jemdżem Stanoski</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Shop.CustomerPackage.Address@3b326997</t>
+    <t>Air Jordan 1 UNC</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Mocha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,17 +531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,34 +586,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -647,21 +594,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G7" sqref="A4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,34 +649,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,7 +665,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,9 +700,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,10 +740,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,8 +775,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,9 +817,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,17 +846,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,6 +877,146 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E2AD91-7A43-451F-99EF-5D555F262413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F702952-2E72-4528-ADD7-47FF66CBC1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Payout" sheetId="5" r:id="rId5"/>
     <sheet name="Offer" sheetId="6" r:id="rId6"/>
     <sheet name="Order" sheetId="7" r:id="rId7"/>
-    <sheet name="Shoe" sheetId="8" r:id="rId8"/>
+    <sheet name="ShoeDetails" sheetId="9" r:id="rId8"/>
+    <sheet name="Shoe" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>userID</t>
   </si>
@@ -61,9 +62,6 @@
     <t>userName</t>
   </si>
   <si>
-    <t>userPayout</t>
-  </si>
-  <si>
     <t>street</t>
   </si>
   <si>
@@ -97,9 +95,6 @@
     <t>accountName</t>
   </si>
   <si>
-    <t>accountAddress</t>
-  </si>
-  <si>
     <t>offerID</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>sellerID</t>
   </si>
   <si>
-    <t>orderDetails</t>
-  </si>
-  <si>
     <t>shoeName</t>
   </si>
   <si>
@@ -148,9 +140,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Michał Salamon</t>
   </si>
   <si>
@@ -160,13 +149,19 @@
     <t>es</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Air Jordan 1 UNC</t>
   </si>
   <si>
     <t>Air Jordan 1 Mocha</t>
+  </si>
+  <si>
+    <t>shoePrice</t>
+  </si>
+  <si>
+    <t>asdaw</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -533,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,30 +555,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +592,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A4:G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,24 +619,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,32 +652,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBD456-D67D-4F72-AB10-952BA9BC7248}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>32123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,22 +720,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -732,10 +765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,18 +779,26 @@
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -767,39 +808,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -809,34 +868,100 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD6B5D-5436-4641-92C6-06DBF046B4C4}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE56AE7C-408C-412A-88FE-04D655CA1DFE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1233</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,19 +987,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,13 +1007,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>40</v>
       </c>
       <c r="D2">
         <v>1200</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,13 +1024,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3">
         <v>1200</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,10 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>40</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -924,13 +1058,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
         <v>1200</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,10 +1075,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>39</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1500</v>
@@ -952,13 +1092,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>44</v>
       </c>
       <c r="D7">
         <v>1200</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,13 +1109,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>41</v>
       </c>
       <c r="D8">
         <v>1200</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,13 +1126,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>39</v>
       </c>
       <c r="D9">
         <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +1143,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1400</v>
@@ -1008,13 +1160,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>44</v>
       </c>
       <c r="D11">
         <v>1200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F702952-2E72-4528-ADD7-47FF66CBC1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FAB2A-B2A2-498E-BCC2-40C276D30897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>userID</t>
   </si>
@@ -208,9 +208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -528,57 +529,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -592,14 +593,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
@@ -608,35 +609,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,50 +653,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBD456-D67D-4F72-AB10-952BA9BC7248}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>32123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,33 +738,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -755,7 +773,27 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -765,40 +803,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -808,37 +857,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,16 +898,36 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1233</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -868,32 +937,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD6B5D-5436-4641-92C6-06DBF046B4C4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,9 +974,23 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -917,51 +1001,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE56AE7C-408C-412A-88FE-04D655CA1DFE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1233</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>43</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +1072,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
   </cols>
@@ -1172,6 +1273,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/Shop/essa.xlsx
+++ b/src/main/java/Shop/essa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FAB2A-B2A2-498E-BCC2-40C276D30897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0637B-DE10-4677-836B-53B7153BF41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>userID</t>
   </si>
@@ -80,9 +80,6 @@
     <t>cardName</t>
   </si>
   <si>
-    <t>cardExpiryDate</t>
-  </si>
-  <si>
     <t>cardExpiryMonth</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Michał Salamon</t>
   </si>
   <si>
@@ -149,19 +149,28 @@
     <t>es</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Air Jordan 1 UNC</t>
   </si>
   <si>
     <t>Air Jordan 1 Mocha</t>
   </si>
   <si>
+    <t>dupa</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low UNC</t>
+  </si>
+  <si>
+    <t>cardExpiryYear</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>shoePrice</t>
-  </si>
-  <si>
-    <t>asdaw</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -208,10 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -530,14 +538,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,22 +563,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -579,7 +587,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -593,14 +601,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
@@ -619,8 +627,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -630,8 +638,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -653,15 +661,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBD456-D67D-4F72-AB10-952BA9BC7248}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -673,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -684,36 +691,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>32123</v>
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +713,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,21 +737,21 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -772,28 +762,8 @@
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -803,17 +773,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -822,32 +792,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -857,15 +816,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
@@ -875,59 +833,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>1233</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -937,24 +875,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD6B5D-5436-4641-92C6-06DBF046B4C4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -963,34 +897,20 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -1000,82 +920,66 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE56AE7C-408C-412A-88FE-04D655CA1DFE}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1EFC9-3BDB-480B-870B-F3F1A4A1440B}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2">
-        <v>1233</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,19 +992,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -1125,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -1142,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -1159,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -1176,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>39</v>
@@ -1193,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>44</v>
@@ -1210,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>41</v>
@@ -1227,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>39</v>
@@ -1244,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>38</v>
@@ -1261,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>44</v>
@@ -1274,10 +1178,140 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>1200</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>1200</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>1200</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>1200</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
